--- a/home/static/Exceltemplates/ActivitiesTemplate.xlsx
+++ b/home/static/Exceltemplates/ActivitiesTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jobben\UBA Patrikum\uba-dashboard\home\static\Exceltemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2E3FD-CD94-40D7-AE3A-8BEF03A59906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE86DC32-E964-47DE-80F6-A30370358C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>17:00:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>LM006-MNB001</t>
   </si>
@@ -90,10 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -444,42 +444,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44931</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
